--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/WI/fuels/BS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/fuels/bs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{640A656A-5064-0842-8AE9-40544D8597A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BADD5B0-BB4D-BB4D-A220-7329BDB61480}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="658">
   <si>
     <t>Source:</t>
   </si>
@@ -2029,9 +2029,6 @@
   </si>
   <si>
     <t>1/ Includes lease condensate.</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2283,7 @@
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2424,6 +2421,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2832,25 +2830,25 @@
     <col min="3" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="75">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
@@ -2858,52 +2856,52 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="36" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="37" t="s">
         <v>244</v>
       </c>
